--- a/data/Tecate_PhaseIII_Topo1m_soil.xlsx
+++ b/data/Tecate_PhaseIII_Topo1m_soil.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIS\Restoration\Tecate Cypress\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rachelkenny/Documents/IRC/R Code/IRC_Tecate_Restoration/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB91F7E0-8A88-4B5B-890B-0090526EAEB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30892E0C-C650-8745-8100-BB6E3416902E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="23240" windowHeight="12560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tecate_PhaseIII" sheetId="1" r:id="rId1"/>
@@ -1246,9 +1246,6 @@
     <t>6-Control-200</t>
   </si>
   <si>
-    <t>Elevation (m)</t>
-  </si>
-  <si>
     <t>Slope1m</t>
   </si>
   <si>
@@ -1262,17 +1259,20 @@
   </si>
   <si>
     <t>Curvature_Planform</t>
+  </si>
+  <si>
+    <t>Elevation1m</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.00000000000"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2109,31 +2109,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P397"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.3125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.1015625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="8.5234375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.62890625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.83984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.89453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.15625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="7.15625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.15625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.20703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.7890625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="8.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="7.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.83203125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2141,22 +2141,22 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>411</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>412</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>2</v>
@@ -2183,7 +2183,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -2233,7 +2233,7 @@
         <v>-117.690669816</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -2283,7 +2283,7 @@
         <v>-117.690676387</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -2333,7 +2333,7 @@
         <v>-117.690697649</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -2383,7 +2383,7 @@
         <v>-117.69070848299999</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -2433,7 +2433,7 @@
         <v>-117.690694983</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:16">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -2483,7 +2483,7 @@
         <v>-117.690703867</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:16">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -2533,7 +2533,7 @@
         <v>-117.690693513</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:16">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -2583,7 +2583,7 @@
         <v>-117.690662649</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:16">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -2633,7 +2633,7 @@
         <v>-117.690690667</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:16">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -2683,7 +2683,7 @@
         <v>-117.690708317</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:16">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -2733,7 +2733,7 @@
         <v>-117.69071037499999</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:16">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
@@ -2783,7 +2783,7 @@
         <v>-117.690720391</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:16">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
@@ -2833,7 +2833,7 @@
         <v>-117.69076502</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:16">
       <c r="A15" s="1" t="s">
         <v>10</v>
       </c>
@@ -2883,7 +2883,7 @@
         <v>-117.690782912</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:16">
       <c r="A16" s="1" t="s">
         <v>10</v>
       </c>
@@ -2933,7 +2933,7 @@
         <v>-117.69079043799999</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:16">
       <c r="A17" s="1" t="s">
         <v>10</v>
       </c>
@@ -2983,7 +2983,7 @@
         <v>-117.69078217000001</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:16">
       <c r="A18" s="1" t="s">
         <v>10</v>
       </c>
@@ -3033,7 +3033,7 @@
         <v>-117.690807816</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:16">
       <c r="A19" s="1" t="s">
         <v>10</v>
       </c>
@@ -3083,7 +3083,7 @@
         <v>-117.69080081600001</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:16">
       <c r="A20" s="1" t="s">
         <v>10</v>
       </c>
@@ -3133,7 +3133,7 @@
         <v>-117.690818099</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:16">
       <c r="A21" s="1" t="s">
         <v>10</v>
       </c>
@@ -3183,7 +3183,7 @@
         <v>-117.690816508</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:16">
       <c r="A22" s="1" t="s">
         <v>10</v>
       </c>
@@ -3233,7 +3233,7 @@
         <v>-117.690826649</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:16">
       <c r="A23" s="1" t="s">
         <v>10</v>
       </c>
@@ -3283,7 +3283,7 @@
         <v>-117.69080848199999</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:16">
       <c r="A24" s="1" t="s">
         <v>10</v>
       </c>
@@ -3333,7 +3333,7 @@
         <v>-117.69077665</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:16">
       <c r="A25" s="1" t="s">
         <v>10</v>
       </c>
@@ -3383,7 +3383,7 @@
         <v>-117.690821934</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:16">
       <c r="A26" s="1" t="s">
         <v>10</v>
       </c>
@@ -3433,7 +3433,7 @@
         <v>-117.69079365</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:16">
       <c r="A27" s="1" t="s">
         <v>10</v>
       </c>
@@ -3483,7 +3483,7 @@
         <v>-117.69077638900001</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:16">
       <c r="A28" s="1" t="s">
         <v>10</v>
       </c>
@@ -3533,7 +3533,7 @@
         <v>-117.69074998799999</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:16">
       <c r="A29" s="1" t="s">
         <v>10</v>
       </c>
@@ -3583,7 +3583,7 @@
         <v>-117.690725288</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:16">
       <c r="A30" s="1" t="s">
         <v>10</v>
       </c>
@@ -3633,7 +3633,7 @@
         <v>-117.690679483</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:16">
       <c r="A31" s="1" t="s">
         <v>10</v>
       </c>
@@ -3683,7 +3683,7 @@
         <v>-117.690688149</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:16">
       <c r="A32" s="1" t="s">
         <v>10</v>
       </c>
@@ -3733,7 +3733,7 @@
         <v>-117.690689365</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:16">
       <c r="A33" s="1" t="s">
         <v>10</v>
       </c>
@@ -3783,7 +3783,7 @@
         <v>-117.690707949</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:16">
       <c r="A34" s="1" t="s">
         <v>10</v>
       </c>
@@ -3833,7 +3833,7 @@
         <v>-117.69068727600001</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:16">
       <c r="A35" s="1" t="s">
         <v>10</v>
       </c>
@@ -3883,7 +3883,7 @@
         <v>-117.690678316</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:16">
       <c r="A36" s="1" t="s">
         <v>10</v>
       </c>
@@ -3933,7 +3933,7 @@
         <v>-117.69069355400001</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:16">
       <c r="A37" s="1" t="s">
         <v>10</v>
       </c>
@@ -3983,7 +3983,7 @@
         <v>-117.690684316</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:16">
       <c r="A38" s="1" t="s">
         <v>10</v>
       </c>
@@ -4033,7 +4033,7 @@
         <v>-117.690682983</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:16">
       <c r="A39" s="1" t="s">
         <v>10</v>
       </c>
@@ -4083,7 +4083,7 @@
         <v>-117.69069040399999</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:16">
       <c r="A40" s="1" t="s">
         <v>10</v>
       </c>
@@ -4133,7 +4133,7 @@
         <v>-117.69071164899999</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:16">
       <c r="A41" s="1" t="s">
         <v>10</v>
       </c>
@@ -4183,7 +4183,7 @@
         <v>-117.690741316</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:16">
       <c r="A42" s="1" t="s">
         <v>10</v>
       </c>
@@ -4233,7 +4233,7 @@
         <v>-117.690733149</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:16">
       <c r="A43" s="1" t="s">
         <v>10</v>
       </c>
@@ -4283,7 +4283,7 @@
         <v>-117.690740316</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:16">
       <c r="A44" s="1" t="s">
         <v>10</v>
       </c>
@@ -4333,7 +4333,7 @@
         <v>-117.690766983</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:16">
       <c r="A45" s="1" t="s">
         <v>10</v>
       </c>
@@ -4383,7 +4383,7 @@
         <v>-117.690764449</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:16">
       <c r="A46" s="1" t="s">
         <v>10</v>
       </c>
@@ -4433,7 +4433,7 @@
         <v>-117.690806001</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:16">
       <c r="A47" s="1" t="s">
         <v>10</v>
       </c>
@@ -4483,7 +4483,7 @@
         <v>-117.690817483</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:16">
       <c r="A48" s="1" t="s">
         <v>10</v>
       </c>
@@ -4533,7 +4533,7 @@
         <v>-117.690819893</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:16">
       <c r="A49" s="1" t="s">
         <v>10</v>
       </c>
@@ -4583,7 +4583,7 @@
         <v>-117.69085269999999</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:16">
       <c r="A50" s="1" t="s">
         <v>10</v>
       </c>
@@ -4633,7 +4633,7 @@
         <v>-117.69082905499999</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:16">
       <c r="A51" s="1" t="s">
         <v>10</v>
       </c>
@@ -4683,7 +4683,7 @@
         <v>-117.69085331700001</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:16">
       <c r="A52" s="1" t="s">
         <v>10</v>
       </c>
@@ -4733,7 +4733,7 @@
         <v>-117.69083984300001</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:16">
       <c r="A53" s="1" t="s">
         <v>10</v>
       </c>
@@ -4783,7 +4783,7 @@
         <v>-117.69083383900001</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:16">
       <c r="A54" s="1" t="s">
         <v>10</v>
       </c>
@@ -4833,7 +4833,7 @@
         <v>-117.690876483</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:16">
       <c r="A55" s="1" t="s">
         <v>10</v>
       </c>
@@ -4883,7 +4883,7 @@
         <v>-117.690886816</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:16">
       <c r="A56" s="1" t="s">
         <v>10</v>
       </c>
@@ -4933,7 +4933,7 @@
         <v>-117.69086448199999</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:16">
       <c r="A57" s="1" t="s">
         <v>10</v>
       </c>
@@ -4983,7 +4983,7 @@
         <v>-117.690826175</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:16">
       <c r="A58" s="1" t="s">
         <v>10</v>
       </c>
@@ -5033,7 +5033,7 @@
         <v>-117.690836983</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:16">
       <c r="A59" s="1" t="s">
         <v>10</v>
       </c>
@@ -5083,7 +5083,7 @@
         <v>-117.690811755</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:16">
       <c r="A60" s="1" t="s">
         <v>10</v>
       </c>
@@ -5133,7 +5133,7 @@
         <v>-117.690828983</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:16">
       <c r="A61" s="1" t="s">
         <v>10</v>
       </c>
@@ -5183,7 +5183,7 @@
         <v>-117.690831649</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:16">
       <c r="A62" s="1" t="s">
         <v>10</v>
       </c>
@@ -5233,7 +5233,7 @@
         <v>-117.69080915000001</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:16">
       <c r="A63" s="1" t="s">
         <v>10</v>
       </c>
@@ -5283,7 +5283,7 @@
         <v>-117.69081500199999</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:16">
       <c r="A64" s="1" t="s">
         <v>10</v>
       </c>
@@ -5333,7 +5333,7 @@
         <v>-117.690768589</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:16">
       <c r="A65" s="1" t="s">
         <v>10</v>
       </c>
@@ -5383,7 +5383,7 @@
         <v>-117.69078682</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:16">
       <c r="A66" s="1" t="s">
         <v>10</v>
       </c>
@@ -5433,7 +5433,7 @@
         <v>-117.69080792</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:16">
       <c r="A67" s="1" t="s">
         <v>10</v>
       </c>
@@ -5483,7 +5483,7 @@
         <v>-117.690783571</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:16">
       <c r="A68" s="1" t="s">
         <v>10</v>
       </c>
@@ -5533,7 +5533,7 @@
         <v>-117.690777152</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:16">
       <c r="A69" s="1" t="s">
         <v>10</v>
       </c>
@@ -5583,7 +5583,7 @@
         <v>-117.690764609</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:16">
       <c r="A70" s="1" t="s">
         <v>10</v>
       </c>
@@ -5633,7 +5633,7 @@
         <v>-117.690716649</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:16">
       <c r="A71" s="1" t="s">
         <v>10</v>
       </c>
@@ -5683,7 +5683,7 @@
         <v>-117.69071298199999</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:16">
       <c r="A72" s="1" t="s">
         <v>10</v>
       </c>
@@ -5733,7 +5733,7 @@
         <v>-117.69069865</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:16">
       <c r="A73" s="1" t="s">
         <v>10</v>
       </c>
@@ -5783,7 +5783,7 @@
         <v>-117.69072065</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:16">
       <c r="A74" s="1" t="s">
         <v>10</v>
       </c>
@@ -5833,7 +5833,7 @@
         <v>-117.69070615</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:16">
       <c r="A75" s="1" t="s">
         <v>10</v>
       </c>
@@ -5883,7 +5883,7 @@
         <v>-117.69072553399999</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:16">
       <c r="A76" s="1" t="s">
         <v>10</v>
       </c>
@@ -5933,7 +5933,7 @@
         <v>-117.69069581700001</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:16">
       <c r="A77" s="1" t="s">
         <v>10</v>
       </c>
@@ -5983,7 +5983,7 @@
         <v>-117.690716305</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:16">
       <c r="A78" s="1" t="s">
         <v>10</v>
       </c>
@@ -6033,7 +6033,7 @@
         <v>-117.690752331</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:16">
       <c r="A79" s="1" t="s">
         <v>10</v>
       </c>
@@ -6083,7 +6083,7 @@
         <v>-117.69073248300001</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:16">
       <c r="A80" s="1" t="s">
         <v>10</v>
       </c>
@@ -6133,7 +6133,7 @@
         <v>-117.690704483</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:16">
       <c r="A81" s="1" t="s">
         <v>10</v>
       </c>
@@ -6183,7 +6183,7 @@
         <v>-117.69072948199999</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:16">
       <c r="A82" s="1" t="s">
         <v>10</v>
       </c>
@@ -6233,7 +6233,7 @@
         <v>-117.69075998300001</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:16">
       <c r="A83" s="1" t="s">
         <v>10</v>
       </c>
@@ -6283,7 +6283,7 @@
         <v>-117.690760817</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:16">
       <c r="A84" s="1" t="s">
         <v>10</v>
       </c>
@@ -6333,7 +6333,7 @@
         <v>-117.690791764</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:16">
       <c r="A85" s="1" t="s">
         <v>10</v>
       </c>
@@ -6383,7 +6383,7 @@
         <v>-117.69076992799999</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:16">
       <c r="A86" s="1" t="s">
         <v>10</v>
       </c>
@@ -6433,7 +6433,7 @@
         <v>-117.69080088</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:16">
       <c r="A87" s="1" t="s">
         <v>10</v>
       </c>
@@ -6483,7 +6483,7 @@
         <v>-117.690821649</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:16">
       <c r="A88" s="1" t="s">
         <v>10</v>
       </c>
@@ -6533,7 +6533,7 @@
         <v>-117.690806788</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:16">
       <c r="A89" s="1" t="s">
         <v>10</v>
       </c>
@@ -6583,7 +6583,7 @@
         <v>-117.690779526</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:16">
       <c r="A90" s="1" t="s">
         <v>10</v>
       </c>
@@ -6633,7 +6633,7 @@
         <v>-117.690803649</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:16">
       <c r="A91" s="1" t="s">
         <v>10</v>
       </c>
@@ -6683,7 +6683,7 @@
         <v>-117.690845482</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:16">
       <c r="A92" s="1" t="s">
         <v>10</v>
       </c>
@@ -6733,7 +6733,7 @@
         <v>-117.69086266799999</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:16">
       <c r="A93" s="1" t="s">
         <v>10</v>
       </c>
@@ -6783,7 +6783,7 @@
         <v>-117.69084515</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:16">
       <c r="A94" s="1" t="s">
         <v>10</v>
       </c>
@@ -6833,7 +6833,7 @@
         <v>-117.69086315</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:16">
       <c r="A95" s="1" t="s">
         <v>10</v>
       </c>
@@ -6883,7 +6883,7 @@
         <v>-117.69089631600001</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:16">
       <c r="A96" s="1" t="s">
         <v>10</v>
       </c>
@@ -6933,7 +6933,7 @@
         <v>-117.69093448300001</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:16">
       <c r="A97" s="1" t="s">
         <v>10</v>
       </c>
@@ -6983,7 +6983,7 @@
         <v>-117.69094615</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:16">
       <c r="A98" s="1" t="s">
         <v>10</v>
       </c>
@@ -7033,7 +7033,7 @@
         <v>-117.690967316</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:16">
       <c r="A99" s="1" t="s">
         <v>10</v>
       </c>
@@ -7083,7 +7083,7 @@
         <v>-117.690974982</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:16">
       <c r="A100" s="1" t="s">
         <v>10</v>
       </c>
@@ -7133,7 +7133,7 @@
         <v>-117.69096981600001</v>
       </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:16">
       <c r="A101" s="1" t="s">
         <v>10</v>
       </c>
@@ -7183,7 +7183,7 @@
         <v>-117.69099831600001</v>
       </c>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:16">
       <c r="A102" s="1" t="s">
         <v>10</v>
       </c>
@@ -7233,7 +7233,7 @@
         <v>-117.69071498300001</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:16">
       <c r="A103" s="1" t="s">
         <v>10</v>
       </c>
@@ -7283,7 +7283,7 @@
         <v>-117.69074481600001</v>
       </c>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:16">
       <c r="A104" s="1" t="s">
         <v>10</v>
       </c>
@@ -7333,7 +7333,7 @@
         <v>-117.690776829</v>
       </c>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:16">
       <c r="A105" s="1" t="s">
         <v>10</v>
       </c>
@@ -7383,7 +7383,7 @@
         <v>-117.690795149</v>
       </c>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:16">
       <c r="A106" s="1" t="s">
         <v>10</v>
       </c>
@@ -7433,7 +7433,7 @@
         <v>-117.690808686</v>
       </c>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:16">
       <c r="A107" s="1" t="s">
         <v>10</v>
       </c>
@@ -7483,7 +7483,7 @@
         <v>-117.69083392100001</v>
       </c>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:16">
       <c r="A108" s="1" t="s">
         <v>10</v>
       </c>
@@ -7533,7 +7533,7 @@
         <v>-117.690856149</v>
       </c>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:16">
       <c r="A109" s="1" t="s">
         <v>10</v>
       </c>
@@ -7583,7 +7583,7 @@
         <v>-117.69087014900001</v>
       </c>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:16">
       <c r="A110" s="1" t="s">
         <v>10</v>
       </c>
@@ -7633,7 +7633,7 @@
         <v>-117.69085296999999</v>
       </c>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:16">
       <c r="A111" s="1" t="s">
         <v>10</v>
       </c>
@@ -7683,7 +7683,7 @@
         <v>-117.69087304599999</v>
       </c>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:16">
       <c r="A112" s="1" t="s">
         <v>10</v>
       </c>
@@ -7733,7 +7733,7 @@
         <v>-117.69089764899999</v>
       </c>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:16">
       <c r="A113" s="1" t="s">
         <v>10</v>
       </c>
@@ -7783,7 +7783,7 @@
         <v>-117.69089255999999</v>
       </c>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:16">
       <c r="A114" s="1" t="s">
         <v>10</v>
       </c>
@@ -7833,7 +7833,7 @@
         <v>-117.69091566199999</v>
       </c>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:16">
       <c r="A115" s="1" t="s">
         <v>10</v>
       </c>
@@ -7883,7 +7883,7 @@
         <v>-117.69093415</v>
       </c>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:16">
       <c r="A116" s="1" t="s">
         <v>10</v>
       </c>
@@ -7933,7 +7933,7 @@
         <v>-117.690935881</v>
       </c>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:16">
       <c r="A117" s="1" t="s">
         <v>10</v>
       </c>
@@ -7983,7 +7983,7 @@
         <v>-117.690969342</v>
       </c>
     </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:16">
       <c r="A118" s="1" t="s">
         <v>10</v>
       </c>
@@ -8033,7 +8033,7 @@
         <v>-117.69097898299999</v>
       </c>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:16">
       <c r="A119" s="1" t="s">
         <v>10</v>
       </c>
@@ -8083,7 +8083,7 @@
         <v>-117.69101631700001</v>
       </c>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:16">
       <c r="A120" s="1" t="s">
         <v>10</v>
       </c>
@@ -8133,7 +8133,7 @@
         <v>-117.691057546</v>
       </c>
     </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:16">
       <c r="A121" s="1" t="s">
         <v>10</v>
       </c>
@@ -8183,7 +8183,7 @@
         <v>-117.691049983</v>
       </c>
     </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:16">
       <c r="A122" s="1" t="s">
         <v>10</v>
       </c>
@@ -8233,7 +8233,7 @@
         <v>-117.691100523</v>
       </c>
     </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:16">
       <c r="A123" s="1" t="s">
         <v>10</v>
       </c>
@@ -8283,7 +8283,7 @@
         <v>-117.691099482</v>
       </c>
     </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:16">
       <c r="A124" s="1" t="s">
         <v>10</v>
       </c>
@@ -8333,7 +8333,7 @@
         <v>-117.691100033</v>
       </c>
     </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:16">
       <c r="A125" s="1" t="s">
         <v>10</v>
       </c>
@@ -8383,7 +8383,7 @@
         <v>-117.691118649</v>
       </c>
     </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:16">
       <c r="A126" s="1" t="s">
         <v>10</v>
       </c>
@@ -8433,7 +8433,7 @@
         <v>-117.691076522</v>
       </c>
     </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:16">
       <c r="A127" s="1" t="s">
         <v>10</v>
       </c>
@@ -8483,7 +8483,7 @@
         <v>-117.69107812199999</v>
       </c>
     </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:16">
       <c r="A128" s="1" t="s">
         <v>10</v>
       </c>
@@ -8533,7 +8533,7 @@
         <v>-117.69104715</v>
       </c>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:16">
       <c r="A129" s="1" t="s">
         <v>10</v>
       </c>
@@ -8583,7 +8583,7 @@
         <v>-117.691060816</v>
       </c>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:16">
       <c r="A130" s="1" t="s">
         <v>10</v>
       </c>
@@ -8633,7 +8633,7 @@
         <v>-117.691068238</v>
       </c>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:16">
       <c r="A131" s="1" t="s">
         <v>10</v>
       </c>
@@ -8683,7 +8683,7 @@
         <v>-117.691046253</v>
       </c>
     </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:16">
       <c r="A132" s="1" t="s">
         <v>10</v>
       </c>
@@ -8733,7 +8733,7 @@
         <v>-117.69105872599999</v>
       </c>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:16">
       <c r="A133" s="1" t="s">
         <v>10</v>
       </c>
@@ -8783,7 +8783,7 @@
         <v>-117.691078895</v>
       </c>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:16">
       <c r="A134" s="1" t="s">
         <v>10</v>
       </c>
@@ -8833,7 +8833,7 @@
         <v>-117.691097996</v>
       </c>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:16">
       <c r="A135" s="1" t="s">
         <v>10</v>
       </c>
@@ -8883,7 +8883,7 @@
         <v>-117.69109775</v>
       </c>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:16">
       <c r="A136" s="1" t="s">
         <v>10</v>
       </c>
@@ -8933,7 +8933,7 @@
         <v>-117.69114064999999</v>
       </c>
     </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:16">
       <c r="A137" s="1" t="s">
         <v>10</v>
       </c>
@@ -8983,7 +8983,7 @@
         <v>-117.691148048</v>
       </c>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:16">
       <c r="A138" s="1" t="s">
         <v>10</v>
       </c>
@@ -9033,7 +9033,7 @@
         <v>-117.691127638</v>
       </c>
     </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:16">
       <c r="A139" s="1" t="s">
         <v>10</v>
       </c>
@@ -9083,7 +9083,7 @@
         <v>-117.691122957</v>
       </c>
     </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:16">
       <c r="A140" s="1" t="s">
         <v>10</v>
       </c>
@@ -9133,7 +9133,7 @@
         <v>-117.69112764899999</v>
       </c>
     </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:16">
       <c r="A141" s="1" t="s">
         <v>10</v>
       </c>
@@ -9183,7 +9183,7 @@
         <v>-117.69114564900001</v>
       </c>
     </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:16">
       <c r="A142" s="1" t="s">
         <v>10</v>
       </c>
@@ -9233,7 +9233,7 @@
         <v>-117.69117109699999</v>
       </c>
     </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:16">
       <c r="A143" s="1" t="s">
         <v>10</v>
       </c>
@@ -9283,7 +9283,7 @@
         <v>-117.691186457</v>
       </c>
     </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:16">
       <c r="A144" s="1" t="s">
         <v>10</v>
       </c>
@@ -9333,7 +9333,7 @@
         <v>-117.69115576599999</v>
       </c>
     </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:16">
       <c r="A145" s="1" t="s">
         <v>10</v>
       </c>
@@ -9383,7 +9383,7 @@
         <v>-117.691135483</v>
       </c>
     </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:16">
       <c r="A146" s="1" t="s">
         <v>10</v>
       </c>
@@ -9433,7 +9433,7 @@
         <v>-117.691162983</v>
       </c>
     </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:16">
       <c r="A147" s="1" t="s">
         <v>10</v>
       </c>
@@ -9483,7 +9483,7 @@
         <v>-117.691175816</v>
       </c>
     </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:16">
       <c r="A148" s="1" t="s">
         <v>10</v>
       </c>
@@ -9533,7 +9533,7 @@
         <v>-117.691162316</v>
       </c>
     </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:16">
       <c r="A149" s="1" t="s">
         <v>10</v>
       </c>
@@ -9583,7 +9583,7 @@
         <v>-117.691187316</v>
       </c>
     </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:16">
       <c r="A150" s="1" t="s">
         <v>10</v>
       </c>
@@ -9633,7 +9633,7 @@
         <v>-117.69119981599999</v>
       </c>
     </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:16">
       <c r="A151" s="1" t="s">
         <v>10</v>
       </c>
@@ -9683,7 +9683,7 @@
         <v>-117.691192316</v>
       </c>
     </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:16">
       <c r="A152" s="1" t="s">
         <v>10</v>
       </c>
@@ -9733,7 +9733,7 @@
         <v>-117.690904149</v>
       </c>
     </row>
-    <row r="153" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:16">
       <c r="A153" s="1" t="s">
         <v>10</v>
       </c>
@@ -9783,7 +9783,7 @@
         <v>-117.690970316</v>
       </c>
     </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:16">
       <c r="A154" s="1" t="s">
         <v>10</v>
       </c>
@@ -9833,7 +9833,7 @@
         <v>-117.691020233</v>
       </c>
     </row>
-    <row r="155" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:16">
       <c r="A155" s="1" t="s">
         <v>10</v>
       </c>
@@ -9883,7 +9883,7 @@
         <v>-117.691035399</v>
       </c>
     </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:16">
       <c r="A156" s="1" t="s">
         <v>10</v>
       </c>
@@ -9933,7 +9933,7 @@
         <v>-117.691080232</v>
       </c>
     </row>
-    <row r="157" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:16">
       <c r="A157" s="1" t="s">
         <v>10</v>
       </c>
@@ -9983,7 +9983,7 @@
         <v>-117.691078232</v>
       </c>
     </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:16">
       <c r="A158" s="1" t="s">
         <v>10</v>
       </c>
@@ -10033,7 +10033,7 @@
         <v>-117.691141899</v>
       </c>
     </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:16">
       <c r="A159" s="1" t="s">
         <v>10</v>
       </c>
@@ -10083,7 +10083,7 @@
         <v>-117.691119894</v>
       </c>
     </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:16">
       <c r="A160" s="1" t="s">
         <v>10</v>
       </c>
@@ -10133,7 +10133,7 @@
         <v>-117.691132232</v>
       </c>
     </row>
-    <row r="161" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:16">
       <c r="A161" s="1" t="s">
         <v>10</v>
       </c>
@@ -10183,7 +10183,7 @@
         <v>-117.691078983</v>
       </c>
     </row>
-    <row r="162" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="1:16">
       <c r="A162" s="1" t="s">
         <v>10</v>
       </c>
@@ -10233,7 +10233,7 @@
         <v>-117.691042649</v>
       </c>
     </row>
-    <row r="163" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="1:16">
       <c r="A163" s="1" t="s">
         <v>10</v>
       </c>
@@ -10283,7 +10283,7 @@
         <v>-117.69100048200001</v>
       </c>
     </row>
-    <row r="164" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:16">
       <c r="A164" s="1" t="s">
         <v>10</v>
       </c>
@@ -10333,7 +10333,7 @@
         <v>-117.69098815</v>
       </c>
     </row>
-    <row r="165" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="1:16">
       <c r="A165" s="1" t="s">
         <v>10</v>
       </c>
@@ -10383,7 +10383,7 @@
         <v>-117.690963483</v>
       </c>
     </row>
-    <row r="166" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="1:16">
       <c r="A166" s="1" t="s">
         <v>10</v>
       </c>
@@ -10433,7 +10433,7 @@
         <v>-117.69094189899999</v>
       </c>
     </row>
-    <row r="167" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="1:16">
       <c r="A167" s="1" t="s">
         <v>10</v>
       </c>
@@ -10483,7 +10483,7 @@
         <v>-117.690916567</v>
       </c>
     </row>
-    <row r="168" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="1:16">
       <c r="A168" s="1" t="s">
         <v>10</v>
       </c>
@@ -10533,7 +10533,7 @@
         <v>-117.69089314999999</v>
       </c>
     </row>
-    <row r="169" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="1:16">
       <c r="A169" s="1" t="s">
         <v>10</v>
       </c>
@@ -10583,7 +10583,7 @@
         <v>-117.690908816</v>
       </c>
     </row>
-    <row r="170" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="1:16">
       <c r="A170" s="1" t="s">
         <v>10</v>
       </c>
@@ -10633,7 +10633,7 @@
         <v>-117.69095276</v>
       </c>
     </row>
-    <row r="171" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="1:16">
       <c r="A171" s="1" t="s">
         <v>10</v>
       </c>
@@ -10683,7 +10683,7 @@
         <v>-117.69096813900001</v>
       </c>
     </row>
-    <row r="172" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="1:16">
       <c r="A172" s="1" t="s">
         <v>10</v>
       </c>
@@ -10733,7 +10733,7 @@
         <v>-117.690979482</v>
       </c>
     </row>
-    <row r="173" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="1:16">
       <c r="A173" s="1" t="s">
         <v>10</v>
       </c>
@@ -10783,7 +10783,7 @@
         <v>-117.6910069</v>
       </c>
     </row>
-    <row r="174" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="174" spans="1:16">
       <c r="A174" s="1" t="s">
         <v>10</v>
       </c>
@@ -10833,7 +10833,7 @@
         <v>-117.691032233</v>
       </c>
     </row>
-    <row r="175" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="1:16">
       <c r="A175" s="1" t="s">
         <v>10</v>
       </c>
@@ -10883,7 +10883,7 @@
         <v>-117.691047066</v>
       </c>
     </row>
-    <row r="176" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="176" spans="1:16">
       <c r="A176" s="1" t="s">
         <v>10</v>
       </c>
@@ -10933,7 +10933,7 @@
         <v>-117.691060816</v>
       </c>
     </row>
-    <row r="177" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="177" spans="1:16">
       <c r="A177" s="1" t="s">
         <v>10</v>
       </c>
@@ -10983,7 +10983,7 @@
         <v>-117.691073816</v>
       </c>
     </row>
-    <row r="178" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="178" spans="1:16">
       <c r="A178" s="1" t="s">
         <v>10</v>
       </c>
@@ -11033,7 +11033,7 @@
         <v>-117.69112156600001</v>
       </c>
     </row>
-    <row r="179" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="179" spans="1:16">
       <c r="A179" s="1" t="s">
         <v>10</v>
       </c>
@@ -11083,7 +11083,7 @@
         <v>-117.691111816</v>
       </c>
     </row>
-    <row r="180" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="1:16">
       <c r="A180" s="1" t="s">
         <v>10</v>
       </c>
@@ -11133,7 +11133,7 @@
         <v>-117.691141899</v>
       </c>
     </row>
-    <row r="181" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="1:16">
       <c r="A181" s="1" t="s">
         <v>10</v>
       </c>
@@ -11183,7 +11183,7 @@
         <v>-117.69116081599999</v>
       </c>
     </row>
-    <row r="182" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="182" spans="1:16">
       <c r="A182" s="1" t="s">
         <v>10</v>
       </c>
@@ -11233,7 +11233,7 @@
         <v>-117.691141316</v>
       </c>
     </row>
-    <row r="183" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="183" spans="1:16">
       <c r="A183" s="1" t="s">
         <v>10</v>
       </c>
@@ -11283,7 +11283,7 @@
         <v>-117.691137817</v>
       </c>
     </row>
-    <row r="184" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="184" spans="1:16">
       <c r="A184" s="1" t="s">
         <v>10</v>
       </c>
@@ -11333,7 +11333,7 @@
         <v>-117.69112506</v>
       </c>
     </row>
-    <row r="185" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="185" spans="1:16">
       <c r="A185" s="1" t="s">
         <v>10</v>
       </c>
@@ -11383,7 +11383,7 @@
         <v>-117.691111783</v>
       </c>
     </row>
-    <row r="186" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="186" spans="1:16">
       <c r="A186" s="1" t="s">
         <v>10</v>
       </c>
@@ -11433,7 +11433,7 @@
         <v>-117.691099123</v>
       </c>
     </row>
-    <row r="187" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="187" spans="1:16">
       <c r="A187" s="1" t="s">
         <v>10</v>
       </c>
@@ -11483,7 +11483,7 @@
         <v>-117.691109316</v>
       </c>
     </row>
-    <row r="188" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="188" spans="1:16">
       <c r="A188" s="1" t="s">
         <v>10</v>
       </c>
@@ -11533,7 +11533,7 @@
         <v>-117.691067483</v>
       </c>
     </row>
-    <row r="189" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="189" spans="1:16">
       <c r="A189" s="1" t="s">
         <v>10</v>
       </c>
@@ -11583,7 +11583,7 @@
         <v>-117.691060982</v>
       </c>
     </row>
-    <row r="190" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="190" spans="1:16">
       <c r="A190" s="1" t="s">
         <v>10</v>
       </c>
@@ -11633,7 +11633,7 @@
         <v>-117.691037733</v>
       </c>
     </row>
-    <row r="191" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="191" spans="1:16">
       <c r="A191" s="1" t="s">
         <v>10</v>
       </c>
@@ -11683,7 +11683,7 @@
         <v>-117.691051316</v>
       </c>
     </row>
-    <row r="192" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="192" spans="1:16">
       <c r="A192" s="1" t="s">
         <v>10</v>
       </c>
@@ -11733,7 +11733,7 @@
         <v>-117.691036899</v>
       </c>
     </row>
-    <row r="193" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="193" spans="1:16">
       <c r="A193" s="1" t="s">
         <v>10</v>
       </c>
@@ -11783,7 +11783,7 @@
         <v>-117.69100365</v>
       </c>
     </row>
-    <row r="194" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="194" spans="1:16">
       <c r="A194" s="1" t="s">
         <v>10</v>
       </c>
@@ -11833,7 +11833,7 @@
         <v>-117.690990066</v>
       </c>
     </row>
-    <row r="195" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="195" spans="1:16">
       <c r="A195" s="1" t="s">
         <v>10</v>
       </c>
@@ -11883,7 +11883,7 @@
         <v>-117.690959816</v>
       </c>
     </row>
-    <row r="196" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="196" spans="1:16">
       <c r="A196" s="1" t="s">
         <v>10</v>
       </c>
@@ -11933,7 +11933,7 @@
         <v>-117.691009149</v>
       </c>
     </row>
-    <row r="197" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="197" spans="1:16">
       <c r="A197" s="1" t="s">
         <v>10</v>
       </c>
@@ -11983,7 +11983,7 @@
         <v>-117.69102214999999</v>
       </c>
     </row>
-    <row r="198" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="198" spans="1:16">
       <c r="A198" s="1" t="s">
         <v>10</v>
       </c>
@@ -12033,7 +12033,7 @@
         <v>-117.691057649</v>
       </c>
     </row>
-    <row r="199" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="199" spans="1:16">
       <c r="A199" s="1" t="s">
         <v>10</v>
       </c>
@@ -12083,7 +12083,7 @@
         <v>-117.691060816</v>
       </c>
     </row>
-    <row r="200" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="200" spans="1:16">
       <c r="A200" s="1" t="s">
         <v>10</v>
       </c>
@@ -12133,7 +12133,7 @@
         <v>-117.691085149</v>
       </c>
     </row>
-    <row r="201" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="201" spans="1:16">
       <c r="A201" s="1" t="s">
         <v>10</v>
       </c>
@@ -12183,7 +12183,7 @@
         <v>-117.691079149</v>
       </c>
     </row>
-    <row r="202" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="202" spans="1:16">
       <c r="A202" s="1" t="s">
         <v>10</v>
       </c>
@@ -12233,7 +12233,7 @@
         <v>-117.691070649</v>
       </c>
     </row>
-    <row r="203" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="203" spans="1:16">
       <c r="A203" s="1" t="s">
         <v>10</v>
       </c>
@@ -12283,7 +12283,7 @@
         <v>-117.69110336599999</v>
       </c>
     </row>
-    <row r="204" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="204" spans="1:16">
       <c r="A204" s="1" t="s">
         <v>10</v>
       </c>
@@ -12333,7 +12333,7 @@
         <v>-117.691098149</v>
       </c>
     </row>
-    <row r="205" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="205" spans="1:16">
       <c r="A205" s="1" t="s">
         <v>10</v>
       </c>
@@ -12383,7 +12383,7 @@
         <v>-117.691135086</v>
       </c>
     </row>
-    <row r="206" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="206" spans="1:16">
       <c r="A206" s="1" t="s">
         <v>10</v>
       </c>
@@ -12433,7 +12433,7 @@
         <v>-117.691186581</v>
       </c>
     </row>
-    <row r="207" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="207" spans="1:16">
       <c r="A207" s="1" t="s">
         <v>10</v>
       </c>
@@ -12483,7 +12483,7 @@
         <v>-117.691210747</v>
       </c>
     </row>
-    <row r="208" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="208" spans="1:16">
       <c r="A208" s="1" t="s">
         <v>10</v>
       </c>
@@ -12533,7 +12533,7 @@
         <v>-117.69119739999999</v>
       </c>
     </row>
-    <row r="209" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="209" spans="1:16">
       <c r="A209" s="1" t="s">
         <v>10</v>
       </c>
@@ -12583,7 +12583,7 @@
         <v>-117.691239149</v>
       </c>
     </row>
-    <row r="210" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="210" spans="1:16">
       <c r="A210" s="1" t="s">
         <v>10</v>
       </c>
@@ -12633,7 +12633,7 @@
         <v>-117.691250399</v>
       </c>
     </row>
-    <row r="211" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="211" spans="1:16">
       <c r="A211" s="1" t="s">
         <v>10</v>
       </c>
@@ -12683,7 +12683,7 @@
         <v>-117.691230066</v>
       </c>
     </row>
-    <row r="212" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="212" spans="1:16">
       <c r="A212" s="1" t="s">
         <v>10</v>
       </c>
@@ -12733,7 +12733,7 @@
         <v>-117.691210899</v>
       </c>
     </row>
-    <row r="213" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="213" spans="1:16">
       <c r="A213" s="1" t="s">
         <v>10</v>
       </c>
@@ -12783,7 +12783,7 @@
         <v>-117.69119456599999</v>
       </c>
     </row>
-    <row r="214" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="214" spans="1:16">
       <c r="A214" s="1" t="s">
         <v>10</v>
       </c>
@@ -12833,7 +12833,7 @@
         <v>-117.691147816</v>
       </c>
     </row>
-    <row r="215" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="215" spans="1:16">
       <c r="A215" s="1" t="s">
         <v>10</v>
       </c>
@@ -12883,7 +12883,7 @@
         <v>-117.691151938</v>
       </c>
     </row>
-    <row r="216" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="216" spans="1:16">
       <c r="A216" s="1" t="s">
         <v>10</v>
       </c>
@@ -12933,7 +12933,7 @@
         <v>-117.691113233</v>
       </c>
     </row>
-    <row r="217" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="217" spans="1:16">
       <c r="A217" s="1" t="s">
         <v>10</v>
       </c>
@@ -12983,7 +12983,7 @@
         <v>-117.69110639</v>
       </c>
     </row>
-    <row r="218" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="218" spans="1:16">
       <c r="A218" s="1" t="s">
         <v>10</v>
       </c>
@@ -13033,7 +13033,7 @@
         <v>-117.6911434</v>
       </c>
     </row>
-    <row r="219" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="219" spans="1:16">
       <c r="A219" s="1" t="s">
         <v>10</v>
       </c>
@@ -13083,7 +13083,7 @@
         <v>-117.691141316</v>
       </c>
     </row>
-    <row r="220" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="220" spans="1:16">
       <c r="A220" s="1" t="s">
         <v>10</v>
       </c>
@@ -13133,7 +13133,7 @@
         <v>-117.691142403</v>
       </c>
     </row>
-    <row r="221" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="221" spans="1:16">
       <c r="A221" s="1" t="s">
         <v>10</v>
       </c>
@@ -13183,7 +13183,7 @@
         <v>-117.691132733</v>
       </c>
     </row>
-    <row r="222" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="222" spans="1:16">
       <c r="A222" s="1" t="s">
         <v>10</v>
       </c>
@@ -13233,7 +13233,7 @@
         <v>-117.6911504</v>
       </c>
     </row>
-    <row r="223" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="223" spans="1:16">
       <c r="A223" s="1" t="s">
         <v>10</v>
       </c>
@@ -13283,7 +13283,7 @@
         <v>-117.69118956600001</v>
       </c>
     </row>
-    <row r="224" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="224" spans="1:16">
       <c r="A224" s="1" t="s">
         <v>10</v>
       </c>
@@ -13333,7 +13333,7 @@
         <v>-117.691193803</v>
       </c>
     </row>
-    <row r="225" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="225" spans="1:16">
       <c r="A225" s="1" t="s">
         <v>10</v>
       </c>
@@ -13383,7 +13383,7 @@
         <v>-117.691199983</v>
       </c>
     </row>
-    <row r="226" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="226" spans="1:16">
       <c r="A226" s="1" t="s">
         <v>10</v>
       </c>
@@ -13433,7 +13433,7 @@
         <v>-117.691214316</v>
       </c>
     </row>
-    <row r="227" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="227" spans="1:16">
       <c r="A227" s="1" t="s">
         <v>10</v>
       </c>
@@ -13483,7 +13483,7 @@
         <v>-117.691213566</v>
       </c>
     </row>
-    <row r="228" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="228" spans="1:16">
       <c r="A228" s="1" t="s">
         <v>10</v>
       </c>
@@ -13533,7 +13533,7 @@
         <v>-117.69123098199999</v>
       </c>
     </row>
-    <row r="229" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="229" spans="1:16">
       <c r="A229" s="1" t="s">
         <v>10</v>
       </c>
@@ -13583,7 +13583,7 @@
         <v>-117.691259399</v>
       </c>
     </row>
-    <row r="230" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="230" spans="1:16">
       <c r="A230" s="1" t="s">
         <v>10</v>
       </c>
@@ -13633,7 +13633,7 @@
         <v>-117.691266732</v>
       </c>
     </row>
-    <row r="231" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="231" spans="1:16">
       <c r="A231" s="1" t="s">
         <v>10</v>
       </c>
@@ -13683,7 +13683,7 @@
         <v>-117.691279628</v>
       </c>
     </row>
-    <row r="232" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="232" spans="1:16">
       <c r="A232" s="1" t="s">
         <v>10</v>
       </c>
@@ -13733,7 +13733,7 @@
         <v>-117.691269733</v>
       </c>
     </row>
-    <row r="233" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="233" spans="1:16">
       <c r="A233" s="1" t="s">
         <v>10</v>
       </c>
@@ -13783,7 +13783,7 @@
         <v>-117.691271066</v>
       </c>
     </row>
-    <row r="234" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="234" spans="1:16">
       <c r="A234" s="1" t="s">
         <v>10</v>
       </c>
@@ -13833,7 +13833,7 @@
         <v>-117.691275483</v>
       </c>
     </row>
-    <row r="235" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="235" spans="1:16">
       <c r="A235" s="1" t="s">
         <v>10</v>
       </c>
@@ -13883,7 +13883,7 @@
         <v>-117.691276233</v>
       </c>
     </row>
-    <row r="236" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="236" spans="1:16">
       <c r="A236" s="1" t="s">
         <v>10</v>
       </c>
@@ -13933,7 +13933,7 @@
         <v>-117.69126217500001</v>
       </c>
     </row>
-    <row r="237" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="237" spans="1:16">
       <c r="A237" s="1" t="s">
         <v>10</v>
       </c>
@@ -13983,7 +13983,7 @@
         <v>-117.69126314899999</v>
       </c>
     </row>
-    <row r="238" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="238" spans="1:16">
       <c r="A238" s="1" t="s">
         <v>10</v>
       </c>
@@ -14033,7 +14033,7 @@
         <v>-117.691236649</v>
       </c>
     </row>
-    <row r="239" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="239" spans="1:16">
       <c r="A239" s="1" t="s">
         <v>10</v>
       </c>
@@ -14083,7 +14083,7 @@
         <v>-117.69122415</v>
       </c>
     </row>
-    <row r="240" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="240" spans="1:16">
       <c r="A240" s="1" t="s">
         <v>10</v>
       </c>
@@ -14133,7 +14133,7 @@
         <v>-117.691222275</v>
       </c>
     </row>
-    <row r="241" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="241" spans="1:16">
       <c r="A241" s="1" t="s">
         <v>10</v>
       </c>
@@ -14183,7 +14183,7 @@
         <v>-117.69119506600001</v>
       </c>
     </row>
-    <row r="242" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="242" spans="1:16">
       <c r="A242" s="1" t="s">
         <v>10</v>
       </c>
@@ -14233,7 +14233,7 @@
         <v>-117.69117264899999</v>
       </c>
     </row>
-    <row r="243" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="243" spans="1:16">
       <c r="A243" s="1" t="s">
         <v>10</v>
       </c>
@@ -14283,7 +14283,7 @@
         <v>-117.69117815</v>
       </c>
     </row>
-    <row r="244" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="244" spans="1:16">
       <c r="A244" s="1" t="s">
         <v>10</v>
       </c>
@@ -14333,7 +14333,7 @@
         <v>-117.691199536</v>
       </c>
     </row>
-    <row r="245" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="245" spans="1:16">
       <c r="A245" s="1" t="s">
         <v>10</v>
       </c>
@@ -14383,7 +14383,7 @@
         <v>-117.691196066</v>
       </c>
     </row>
-    <row r="246" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="246" spans="1:16">
       <c r="A246" s="1" t="s">
         <v>10</v>
       </c>
@@ -14433,7 +14433,7 @@
         <v>-117.691233483</v>
       </c>
     </row>
-    <row r="247" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="247" spans="1:16">
       <c r="A247" s="1" t="s">
         <v>10</v>
       </c>
@@ -14483,7 +14483,7 @@
         <v>-117.691232566</v>
       </c>
     </row>
-    <row r="248" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="248" spans="1:16">
       <c r="A248" s="1" t="s">
         <v>10</v>
       </c>
@@ -14533,7 +14533,7 @@
         <v>-117.69124917000001</v>
       </c>
     </row>
-    <row r="249" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="249" spans="1:16">
       <c r="A249" s="1" t="s">
         <v>10</v>
       </c>
@@ -14583,7 +14583,7 @@
         <v>-117.691252732</v>
       </c>
     </row>
-    <row r="250" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="250" spans="1:16">
       <c r="A250" s="1" t="s">
         <v>10</v>
       </c>
@@ -14633,7 +14633,7 @@
         <v>-117.691247864</v>
       </c>
     </row>
-    <row r="251" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="251" spans="1:16">
       <c r="A251" s="1" t="s">
         <v>10</v>
       </c>
@@ -14683,7 +14683,7 @@
         <v>-117.69126289899999</v>
       </c>
     </row>
-    <row r="252" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="252" spans="1:16">
       <c r="A252" s="1" t="s">
         <v>10</v>
       </c>
@@ -14733,7 +14733,7 @@
         <v>-117.691162816</v>
       </c>
     </row>
-    <row r="253" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="253" spans="1:16">
       <c r="A253" s="1" t="s">
         <v>10</v>
       </c>
@@ -14783,7 +14783,7 @@
         <v>-117.69117414999999</v>
       </c>
     </row>
-    <row r="254" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="254" spans="1:16">
       <c r="A254" s="1" t="s">
         <v>10</v>
       </c>
@@ -14833,7 +14833,7 @@
         <v>-117.69119523800001</v>
       </c>
     </row>
-    <row r="255" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="255" spans="1:16">
       <c r="A255" s="1" t="s">
         <v>10</v>
       </c>
@@ -14883,7 +14883,7 @@
         <v>-117.691172352</v>
       </c>
     </row>
-    <row r="256" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="256" spans="1:16">
       <c r="A256" s="1" t="s">
         <v>10</v>
       </c>
@@ -14933,7 +14933,7 @@
         <v>-117.69115031600001</v>
       </c>
     </row>
-    <row r="257" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="257" spans="1:16">
       <c r="A257" s="1" t="s">
         <v>10</v>
       </c>
@@ -14983,7 +14983,7 @@
         <v>-117.69114965</v>
       </c>
     </row>
-    <row r="258" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="258" spans="1:16">
       <c r="A258" s="1" t="s">
         <v>10</v>
       </c>
@@ -15033,7 +15033,7 @@
         <v>-117.691202483</v>
       </c>
     </row>
-    <row r="259" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="259" spans="1:16">
       <c r="A259" s="1" t="s">
         <v>10</v>
       </c>
@@ -15083,7 +15083,7 @@
         <v>-117.691211149</v>
       </c>
     </row>
-    <row r="260" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="260" spans="1:16">
       <c r="A260" s="1" t="s">
         <v>10</v>
       </c>
@@ -15133,7 +15133,7 @@
         <v>-117.691226368</v>
       </c>
     </row>
-    <row r="261" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="261" spans="1:16">
       <c r="A261" s="1" t="s">
         <v>10</v>
       </c>
@@ -15183,7 +15183,7 @@
         <v>-117.69123898300001</v>
       </c>
     </row>
-    <row r="262" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="262" spans="1:16">
       <c r="A262" s="1" t="s">
         <v>10</v>
       </c>
@@ -15233,7 +15233,7 @@
         <v>-117.691261983</v>
       </c>
     </row>
-    <row r="263" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="263" spans="1:16">
       <c r="A263" s="1" t="s">
         <v>10</v>
       </c>
@@ -15283,7 +15283,7 @@
         <v>-117.69127331599999</v>
       </c>
     </row>
-    <row r="264" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="264" spans="1:16">
       <c r="A264" s="1" t="s">
         <v>10</v>
       </c>
@@ -15333,7 +15333,7 @@
         <v>-117.69129270000001</v>
       </c>
     </row>
-    <row r="265" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="265" spans="1:16">
       <c r="A265" s="1" t="s">
         <v>10</v>
       </c>
@@ -15383,7 +15383,7 @@
         <v>-117.69124954599999</v>
       </c>
     </row>
-    <row r="266" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="266" spans="1:16">
       <c r="A266" s="1" t="s">
         <v>10</v>
       </c>
@@ -15433,7 +15433,7 @@
         <v>-117.691223982</v>
       </c>
     </row>
-    <row r="267" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="267" spans="1:16">
       <c r="A267" s="1" t="s">
         <v>10</v>
       </c>
@@ -15483,7 +15483,7 @@
         <v>-117.691259816</v>
       </c>
     </row>
-    <row r="268" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="268" spans="1:16">
       <c r="A268" s="1" t="s">
         <v>10</v>
       </c>
@@ -15533,7 +15533,7 @@
         <v>-117.691283149</v>
       </c>
     </row>
-    <row r="269" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="269" spans="1:16">
       <c r="A269" s="1" t="s">
         <v>10</v>
       </c>
@@ -15583,7 +15583,7 @@
         <v>-117.691270148</v>
       </c>
     </row>
-    <row r="270" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="270" spans="1:16">
       <c r="A270" s="1" t="s">
         <v>10</v>
       </c>
@@ -15633,7 +15633,7 @@
         <v>-117.691279983</v>
       </c>
     </row>
-    <row r="271" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="271" spans="1:16">
       <c r="A271" s="1" t="s">
         <v>10</v>
       </c>
@@ -15683,7 +15683,7 @@
         <v>-117.691309534</v>
       </c>
     </row>
-    <row r="272" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="272" spans="1:16">
       <c r="A272" s="1" t="s">
         <v>10</v>
       </c>
@@ -15733,7 +15733,7 @@
         <v>-117.69131896899999</v>
       </c>
     </row>
-    <row r="273" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="273" spans="1:16">
       <c r="A273" s="1" t="s">
         <v>10</v>
       </c>
@@ -15783,7 +15783,7 @@
         <v>-117.691365816</v>
       </c>
     </row>
-    <row r="274" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="274" spans="1:16">
       <c r="A274" s="1" t="s">
         <v>10</v>
       </c>
@@ -15833,7 +15833,7 @@
         <v>-117.69139103400001</v>
       </c>
     </row>
-    <row r="275" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="275" spans="1:16">
       <c r="A275" s="1" t="s">
         <v>10</v>
       </c>
@@ -15883,7 +15883,7 @@
         <v>-117.691404124</v>
       </c>
     </row>
-    <row r="276" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="276" spans="1:16">
       <c r="A276" s="1" t="s">
         <v>10</v>
       </c>
@@ -15933,7 +15933,7 @@
         <v>-117.69142157</v>
       </c>
     </row>
-    <row r="277" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="277" spans="1:16">
       <c r="A277" s="1" t="s">
         <v>10</v>
       </c>
@@ -15983,7 +15983,7 @@
         <v>-117.691399983</v>
       </c>
     </row>
-    <row r="278" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="278" spans="1:16">
       <c r="A278" s="1" t="s">
         <v>10</v>
       </c>
@@ -16033,7 +16033,7 @@
         <v>-117.69140748300001</v>
       </c>
     </row>
-    <row r="279" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="279" spans="1:16">
       <c r="A279" s="1" t="s">
         <v>10</v>
       </c>
@@ -16083,7 +16083,7 @@
         <v>-117.691418801</v>
       </c>
     </row>
-    <row r="280" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="280" spans="1:16">
       <c r="A280" s="1" t="s">
         <v>10</v>
       </c>
@@ -16133,7 +16133,7 @@
         <v>-117.691354483</v>
       </c>
     </row>
-    <row r="281" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="281" spans="1:16">
       <c r="A281" s="1" t="s">
         <v>10</v>
       </c>
@@ -16183,7 +16183,7 @@
         <v>-117.691331316</v>
       </c>
     </row>
-    <row r="282" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="282" spans="1:16">
       <c r="A282" s="1" t="s">
         <v>10</v>
       </c>
@@ -16233,7 +16233,7 @@
         <v>-117.690878149</v>
       </c>
     </row>
-    <row r="283" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="283" spans="1:16">
       <c r="A283" s="1" t="s">
         <v>10</v>
       </c>
@@ -16283,7 +16283,7 @@
         <v>-117.69090314899999</v>
       </c>
     </row>
-    <row r="284" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="284" spans="1:16">
       <c r="A284" s="1" t="s">
         <v>10</v>
       </c>
@@ -16333,7 +16333,7 @@
         <v>-117.69092712299999</v>
       </c>
     </row>
-    <row r="285" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="285" spans="1:16">
       <c r="A285" s="1" t="s">
         <v>10</v>
       </c>
@@ -16383,7 +16383,7 @@
         <v>-117.69094115</v>
       </c>
     </row>
-    <row r="286" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="286" spans="1:16">
       <c r="A286" s="1" t="s">
         <v>10</v>
       </c>
@@ -16433,7 +16433,7 @@
         <v>-117.690993961</v>
       </c>
     </row>
-    <row r="287" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="287" spans="1:16">
       <c r="A287" s="1" t="s">
         <v>10</v>
       </c>
@@ -16483,7 +16483,7 @@
         <v>-117.69096161</v>
       </c>
     </row>
-    <row r="288" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="288" spans="1:16">
       <c r="A288" s="1" t="s">
         <v>10</v>
       </c>
@@ -16533,7 +16533,7 @@
         <v>-117.690989317</v>
       </c>
     </row>
-    <row r="289" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="289" spans="1:16">
       <c r="A289" s="1" t="s">
         <v>10</v>
       </c>
@@ -16583,7 +16583,7 @@
         <v>-117.690964599</v>
       </c>
     </row>
-    <row r="290" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="290" spans="1:16">
       <c r="A290" s="1" t="s">
         <v>10</v>
       </c>
@@ -16633,7 +16633,7 @@
         <v>-117.690991084</v>
       </c>
     </row>
-    <row r="291" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="291" spans="1:16">
       <c r="A291" s="1" t="s">
         <v>10</v>
       </c>
@@ -16683,7 +16683,7 @@
         <v>-117.690969649</v>
       </c>
     </row>
-    <row r="292" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="292" spans="1:16">
       <c r="A292" s="1" t="s">
         <v>10</v>
       </c>
@@ -16733,7 +16733,7 @@
         <v>-117.69094832899999</v>
       </c>
     </row>
-    <row r="293" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="293" spans="1:16">
       <c r="A293" s="1" t="s">
         <v>10</v>
       </c>
@@ -16783,7 +16783,7 @@
         <v>-117.69095964900001</v>
       </c>
     </row>
-    <row r="294" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="294" spans="1:16">
       <c r="A294" s="1" t="s">
         <v>10</v>
       </c>
@@ -16833,7 +16833,7 @@
         <v>-117.69093081600001</v>
       </c>
     </row>
-    <row r="295" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="295" spans="1:16">
       <c r="A295" s="1" t="s">
         <v>10</v>
       </c>
@@ -16883,7 +16883,7 @@
         <v>-117.690918483</v>
       </c>
     </row>
-    <row r="296" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="296" spans="1:16">
       <c r="A296" s="1" t="s">
         <v>10</v>
       </c>
@@ -16933,7 +16933,7 @@
         <v>-117.690995227</v>
       </c>
     </row>
-    <row r="297" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="297" spans="1:16">
       <c r="A297" s="1" t="s">
         <v>10</v>
       </c>
@@ -16983,7 +16983,7 @@
         <v>-117.69099781600001</v>
       </c>
     </row>
-    <row r="298" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="298" spans="1:16">
       <c r="A298" s="1" t="s">
         <v>10</v>
       </c>
@@ -17033,7 +17033,7 @@
         <v>-117.69099287900001</v>
       </c>
     </row>
-    <row r="299" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="299" spans="1:16">
       <c r="A299" s="1" t="s">
         <v>10</v>
       </c>
@@ -17083,7 +17083,7 @@
         <v>-117.690972149</v>
       </c>
     </row>
-    <row r="300" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="300" spans="1:16">
       <c r="A300" s="1" t="s">
         <v>10</v>
       </c>
@@ -17133,7 +17133,7 @@
         <v>-117.69096965</v>
       </c>
     </row>
-    <row r="301" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="301" spans="1:16">
       <c r="A301" s="1" t="s">
         <v>10</v>
       </c>
@@ -17183,7 +17183,7 @@
         <v>-117.69097976499999</v>
       </c>
     </row>
-    <row r="302" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="302" spans="1:16">
       <c r="A302" s="1" t="s">
         <v>10</v>
       </c>
@@ -17233,7 +17233,7 @@
         <v>-117.691002817</v>
       </c>
     </row>
-    <row r="303" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="303" spans="1:16">
       <c r="A303" s="1" t="s">
         <v>10</v>
       </c>
@@ -17283,7 +17283,7 @@
         <v>-117.691004996</v>
       </c>
     </row>
-    <row r="304" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="304" spans="1:16">
       <c r="A304" s="1" t="s">
         <v>10</v>
       </c>
@@ -17333,7 +17333,7 @@
         <v>-117.691033507</v>
       </c>
     </row>
-    <row r="305" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="305" spans="1:16">
       <c r="A305" s="1" t="s">
         <v>10</v>
       </c>
@@ -17383,7 +17383,7 @@
         <v>-117.69105437899999</v>
       </c>
     </row>
-    <row r="306" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="306" spans="1:16">
       <c r="A306" s="1" t="s">
         <v>10</v>
       </c>
@@ -17433,7 +17433,7 @@
         <v>-117.691029649</v>
       </c>
     </row>
-    <row r="307" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="307" spans="1:16">
       <c r="A307" s="1" t="s">
         <v>10</v>
       </c>
@@ -17483,7 +17483,7 @@
         <v>-117.69105029000001</v>
       </c>
     </row>
-    <row r="308" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="308" spans="1:16">
       <c r="A308" s="1" t="s">
         <v>10</v>
       </c>
@@ -17533,7 +17533,7 @@
         <v>-117.69102578099999</v>
       </c>
     </row>
-    <row r="309" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="309" spans="1:16">
       <c r="A309" s="1" t="s">
         <v>10</v>
       </c>
@@ -17583,7 +17583,7 @@
         <v>-117.691023895</v>
       </c>
     </row>
-    <row r="310" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="310" spans="1:16">
       <c r="A310" s="1" t="s">
         <v>10</v>
       </c>
@@ -17633,7 +17633,7 @@
         <v>-117.69104599800001</v>
       </c>
     </row>
-    <row r="311" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="311" spans="1:16">
       <c r="A311" s="1" t="s">
         <v>10</v>
       </c>
@@ -17683,7 +17683,7 @@
         <v>-117.69106989399999</v>
       </c>
     </row>
-    <row r="312" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="312" spans="1:16">
       <c r="A312" s="1" t="s">
         <v>10</v>
       </c>
@@ -17733,7 +17733,7 @@
         <v>-117.69108864899999</v>
       </c>
     </row>
-    <row r="313" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="313" spans="1:16">
       <c r="A313" s="1" t="s">
         <v>10</v>
       </c>
@@ -17783,7 +17783,7 @@
         <v>-117.691109316</v>
       </c>
     </row>
-    <row r="314" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="314" spans="1:16">
       <c r="A314" s="1" t="s">
         <v>10</v>
       </c>
@@ -17833,7 +17833,7 @@
         <v>-117.69081598299999</v>
       </c>
     </row>
-    <row r="315" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="315" spans="1:16">
       <c r="A315" s="1" t="s">
         <v>10</v>
       </c>
@@ -17883,7 +17883,7 @@
         <v>-117.69079256099999</v>
       </c>
     </row>
-    <row r="316" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="316" spans="1:16">
       <c r="A316" s="1" t="s">
         <v>10</v>
       </c>
@@ -17933,7 +17933,7 @@
         <v>-117.690821316</v>
       </c>
     </row>
-    <row r="317" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="317" spans="1:16">
       <c r="A317" s="1" t="s">
         <v>10</v>
       </c>
@@ -17983,7 +17983,7 @@
         <v>-117.69083798299999</v>
       </c>
     </row>
-    <row r="318" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="318" spans="1:16">
       <c r="A318" s="1" t="s">
         <v>10</v>
       </c>
@@ -18033,7 +18033,7 @@
         <v>-117.69080631600001</v>
       </c>
     </row>
-    <row r="319" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="319" spans="1:16">
       <c r="A319" s="1" t="s">
         <v>10</v>
       </c>
@@ -18083,7 +18083,7 @@
         <v>-117.69081131599999</v>
       </c>
     </row>
-    <row r="320" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="320" spans="1:16">
       <c r="A320" s="1" t="s">
         <v>10</v>
       </c>
@@ -18133,7 +18133,7 @@
         <v>-117.690756483</v>
       </c>
     </row>
-    <row r="321" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="321" spans="1:16">
       <c r="A321" s="1" t="s">
         <v>10</v>
       </c>
@@ -18183,7 +18183,7 @@
         <v>-117.690736149</v>
       </c>
     </row>
-    <row r="322" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="322" spans="1:16">
       <c r="A322" s="1" t="s">
         <v>10</v>
       </c>
@@ -18233,7 +18233,7 @@
         <v>-117.691047983</v>
       </c>
     </row>
-    <row r="323" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="323" spans="1:16">
       <c r="A323" s="1" t="s">
         <v>10</v>
       </c>
@@ -18283,7 +18283,7 @@
         <v>-117.691054342</v>
       </c>
     </row>
-    <row r="324" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="324" spans="1:16">
       <c r="A324" s="1" t="s">
         <v>10</v>
       </c>
@@ -18333,7 +18333,7 @@
         <v>-117.69107115</v>
       </c>
     </row>
-    <row r="325" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="325" spans="1:16">
       <c r="A325" s="1" t="s">
         <v>10</v>
       </c>
@@ -18383,7 +18383,7 @@
         <v>-117.691076714</v>
       </c>
     </row>
-    <row r="326" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="326" spans="1:16">
       <c r="A326" s="1" t="s">
         <v>10</v>
       </c>
@@ -18433,7 +18433,7 @@
         <v>-117.691099816</v>
       </c>
     </row>
-    <row r="327" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="327" spans="1:16">
       <c r="A327" s="1" t="s">
         <v>10</v>
       </c>
@@ -18483,7 +18483,7 @@
         <v>-117.691097868</v>
       </c>
     </row>
-    <row r="328" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="328" spans="1:16">
       <c r="A328" s="1" t="s">
         <v>10</v>
       </c>
@@ -18533,7 +18533,7 @@
         <v>-117.691120983</v>
       </c>
     </row>
-    <row r="329" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="329" spans="1:16">
       <c r="A329" s="1" t="s">
         <v>10</v>
       </c>
@@ -18583,7 +18583,7 @@
         <v>-117.691111983</v>
       </c>
     </row>
-    <row r="330" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="330" spans="1:16">
       <c r="A330" s="1" t="s">
         <v>10</v>
       </c>
@@ -18633,7 +18633,7 @@
         <v>-117.691098291</v>
       </c>
     </row>
-    <row r="331" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="331" spans="1:16">
       <c r="A331" s="1" t="s">
         <v>10</v>
       </c>
@@ -18683,7 +18683,7 @@
         <v>-117.69108115</v>
       </c>
     </row>
-    <row r="332" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="332" spans="1:16">
       <c r="A332" s="1" t="s">
         <v>10</v>
       </c>
@@ -18733,7 +18733,7 @@
         <v>-117.691124316</v>
       </c>
     </row>
-    <row r="333" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="333" spans="1:16">
       <c r="A333" s="1" t="s">
         <v>10</v>
       </c>
@@ -18783,7 +18783,7 @@
         <v>-117.691139816</v>
       </c>
     </row>
-    <row r="334" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="334" spans="1:16">
       <c r="A334" s="1" t="s">
         <v>10</v>
       </c>
@@ -18833,7 +18833,7 @@
         <v>-117.69113281600001</v>
       </c>
     </row>
-    <row r="335" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="335" spans="1:16">
       <c r="A335" s="1" t="s">
         <v>10</v>
       </c>
@@ -18883,7 +18883,7 @@
         <v>-117.69114381599999</v>
       </c>
     </row>
-    <row r="336" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="336" spans="1:16">
       <c r="A336" s="1" t="s">
         <v>10</v>
       </c>
@@ -18933,7 +18933,7 @@
         <v>-117.69115031600001</v>
       </c>
     </row>
-    <row r="337" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="337" spans="1:16">
       <c r="A337" s="1" t="s">
         <v>10</v>
       </c>
@@ -18983,7 +18983,7 @@
         <v>-117.69117148300001</v>
       </c>
     </row>
-    <row r="338" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="338" spans="1:16">
       <c r="A338" s="1" t="s">
         <v>10</v>
       </c>
@@ -19033,7 +19033,7 @@
         <v>-117.69115248200001</v>
       </c>
     </row>
-    <row r="339" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="339" spans="1:16">
       <c r="A339" s="1" t="s">
         <v>10</v>
       </c>
@@ -19083,7 +19083,7 @@
         <v>-117.691171983</v>
       </c>
     </row>
-    <row r="340" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="340" spans="1:16">
       <c r="A340" s="1" t="s">
         <v>10</v>
       </c>
@@ -19133,7 +19133,7 @@
         <v>-117.69119614900001</v>
       </c>
     </row>
-    <row r="341" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="341" spans="1:16">
       <c r="A341" s="1" t="s">
         <v>10</v>
       </c>
@@ -19183,7 +19183,7 @@
         <v>-117.691199548</v>
       </c>
     </row>
-    <row r="342" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="342" spans="1:16">
       <c r="A342" s="1" t="s">
         <v>10</v>
       </c>
@@ -19233,7 +19233,7 @@
         <v>-117.69120448300001</v>
       </c>
     </row>
-    <row r="343" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="343" spans="1:16">
       <c r="A343" s="1" t="s">
         <v>10</v>
       </c>
@@ -19283,7 +19283,7 @@
         <v>-117.691223982</v>
       </c>
     </row>
-    <row r="344" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="344" spans="1:16">
       <c r="A344" s="1" t="s">
         <v>10</v>
       </c>
@@ -19333,7 +19333,7 @@
         <v>-117.69123465</v>
       </c>
     </row>
-    <row r="345" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="345" spans="1:16">
       <c r="A345" s="1" t="s">
         <v>10</v>
       </c>
@@ -19383,7 +19383,7 @@
         <v>-117.69125498299999</v>
       </c>
     </row>
-    <row r="346" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="346" spans="1:16">
       <c r="A346" s="1" t="s">
         <v>10</v>
       </c>
@@ -19433,7 +19433,7 @@
         <v>-117.69125764899999</v>
       </c>
     </row>
-    <row r="347" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="347" spans="1:16">
       <c r="A347" s="1" t="s">
         <v>10</v>
       </c>
@@ -19483,7 +19483,7 @@
         <v>-117.69126231600001</v>
       </c>
     </row>
-    <row r="348" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="348" spans="1:16">
       <c r="A348" s="1" t="s">
         <v>10</v>
       </c>
@@ -19533,7 +19533,7 @@
         <v>-117.69128981599999</v>
       </c>
     </row>
-    <row r="349" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="349" spans="1:16">
       <c r="A349" s="1" t="s">
         <v>10</v>
       </c>
@@ -19583,7 +19583,7 @@
         <v>-117.691281983</v>
       </c>
     </row>
-    <row r="350" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="350" spans="1:16">
       <c r="A350" s="1" t="s">
         <v>10</v>
       </c>
@@ -19633,7 +19633,7 @@
         <v>-117.69126231600001</v>
       </c>
     </row>
-    <row r="351" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="351" spans="1:16">
       <c r="A351" s="1" t="s">
         <v>10</v>
       </c>
@@ -19683,7 +19683,7 @@
         <v>-117.69123779</v>
       </c>
     </row>
-    <row r="352" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="352" spans="1:16">
       <c r="A352" s="1" t="s">
         <v>10</v>
       </c>
@@ -19733,7 +19733,7 @@
         <v>-117.691224816</v>
       </c>
     </row>
-    <row r="353" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="353" spans="1:16">
       <c r="A353" s="1" t="s">
         <v>10</v>
       </c>
@@ -19783,7 +19783,7 @@
         <v>-117.691234482</v>
       </c>
     </row>
-    <row r="354" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="354" spans="1:16">
       <c r="A354" s="1" t="s">
         <v>10</v>
       </c>
@@ -19833,7 +19833,7 @@
         <v>-117.691199649</v>
       </c>
     </row>
-    <row r="355" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="355" spans="1:16">
       <c r="A355" s="1" t="s">
         <v>10</v>
       </c>
@@ -19883,7 +19883,7 @@
         <v>-117.691221149</v>
       </c>
     </row>
-    <row r="356" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="356" spans="1:16">
       <c r="A356" s="1" t="s">
         <v>10</v>
       </c>
@@ -19933,7 +19933,7 @@
         <v>-117.69119098199999</v>
       </c>
     </row>
-    <row r="357" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="357" spans="1:16">
       <c r="A357" s="1" t="s">
         <v>10</v>
       </c>
@@ -19983,7 +19983,7 @@
         <v>-117.691167316</v>
       </c>
     </row>
-    <row r="358" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="358" spans="1:16">
       <c r="A358" s="1" t="s">
         <v>10</v>
       </c>
@@ -20033,7 +20033,7 @@
         <v>-117.691175149</v>
       </c>
     </row>
-    <row r="359" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="359" spans="1:16">
       <c r="A359" s="1" t="s">
         <v>10</v>
       </c>
@@ -20083,7 +20083,7 @@
         <v>-117.691165149</v>
       </c>
     </row>
-    <row r="360" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="360" spans="1:16">
       <c r="A360" s="1" t="s">
         <v>10</v>
       </c>
@@ -20133,7 +20133,7 @@
         <v>-117.691163649</v>
       </c>
     </row>
-    <row r="361" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="361" spans="1:16">
       <c r="A361" s="1" t="s">
         <v>10</v>
       </c>
@@ -20183,7 +20183,7 @@
         <v>-117.691150892</v>
       </c>
     </row>
-    <row r="362" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="362" spans="1:16">
       <c r="A362" s="1" t="s">
         <v>10</v>
       </c>
@@ -20233,7 +20233,7 @@
         <v>-117.69117538</v>
       </c>
     </row>
-    <row r="363" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="363" spans="1:16">
       <c r="A363" s="1" t="s">
         <v>10</v>
       </c>
@@ -20283,7 +20283,7 @@
         <v>-117.691198648</v>
       </c>
     </row>
-    <row r="364" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="364" spans="1:16">
       <c r="A364" s="1" t="s">
         <v>10</v>
       </c>
@@ -20333,7 +20333,7 @@
         <v>-117.69119564899999</v>
       </c>
     </row>
-    <row r="365" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="365" spans="1:16">
       <c r="A365" s="1" t="s">
         <v>10</v>
       </c>
@@ -20383,7 +20383,7 @@
         <v>-117.69117365</v>
       </c>
     </row>
-    <row r="366" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="366" spans="1:16">
       <c r="A366" s="1" t="s">
         <v>10</v>
       </c>
@@ -20433,7 +20433,7 @@
         <v>-117.69115664900001</v>
       </c>
     </row>
-    <row r="367" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="367" spans="1:16">
       <c r="A367" s="1" t="s">
         <v>10</v>
       </c>
@@ -20483,7 +20483,7 @@
         <v>-117.691158278</v>
       </c>
     </row>
-    <row r="368" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="368" spans="1:16">
       <c r="A368" s="1" t="s">
         <v>10</v>
       </c>
@@ -20533,7 +20533,7 @@
         <v>-117.69118331599999</v>
       </c>
     </row>
-    <row r="369" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="369" spans="1:16">
       <c r="A369" s="1" t="s">
         <v>10</v>
       </c>
@@ -20583,7 +20583,7 @@
         <v>-117.69118198300001</v>
       </c>
     </row>
-    <row r="370" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="370" spans="1:16">
       <c r="A370" s="1" t="s">
         <v>10</v>
       </c>
@@ -20633,7 +20633,7 @@
         <v>-117.69120714899999</v>
       </c>
     </row>
-    <row r="371" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="371" spans="1:16">
       <c r="A371" s="1" t="s">
         <v>10</v>
       </c>
@@ -20683,7 +20683,7 @@
         <v>-117.691228649</v>
       </c>
     </row>
-    <row r="372" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="372" spans="1:16">
       <c r="A372" s="1" t="s">
         <v>10</v>
       </c>
@@ -20733,7 +20733,7 @@
         <v>-117.691244983</v>
       </c>
     </row>
-    <row r="373" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="373" spans="1:16">
       <c r="A373" s="1" t="s">
         <v>10</v>
       </c>
@@ -20783,7 +20783,7 @@
         <v>-117.691271482</v>
       </c>
     </row>
-    <row r="374" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="374" spans="1:16">
       <c r="A374" s="1" t="s">
         <v>10</v>
       </c>
@@ -20833,7 +20833,7 @@
         <v>-117.691243675</v>
       </c>
     </row>
-    <row r="375" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="375" spans="1:16">
       <c r="A375" s="1" t="s">
         <v>10</v>
       </c>
@@ -20883,7 +20883,7 @@
         <v>-117.69125732800001</v>
       </c>
     </row>
-    <row r="376" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="376" spans="1:16">
       <c r="A376" s="1" t="s">
         <v>10</v>
       </c>
@@ -20933,7 +20933,7 @@
         <v>-117.691291007</v>
       </c>
     </row>
-    <row r="377" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="377" spans="1:16">
       <c r="A377" s="1" t="s">
         <v>10</v>
       </c>
@@ -20983,7 +20983,7 @@
         <v>-117.69127167400001</v>
       </c>
     </row>
-    <row r="378" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="378" spans="1:16">
       <c r="A378" s="1" t="s">
         <v>10</v>
       </c>
@@ -21033,7 +21033,7 @@
         <v>-117.691257253</v>
       </c>
     </row>
-    <row r="379" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="379" spans="1:16">
       <c r="A379" s="1" t="s">
         <v>10</v>
       </c>
@@ -21083,7 +21083,7 @@
         <v>-117.691257957</v>
       </c>
     </row>
-    <row r="380" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="380" spans="1:16">
       <c r="A380" s="1" t="s">
         <v>10</v>
       </c>
@@ -21133,7 +21133,7 @@
         <v>-117.691238316</v>
       </c>
     </row>
-    <row r="381" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="381" spans="1:16">
       <c r="A381" s="1" t="s">
         <v>10</v>
       </c>
@@ -21183,7 +21183,7 @@
         <v>-117.691221982</v>
       </c>
     </row>
-    <row r="382" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="382" spans="1:16">
       <c r="A382" s="1" t="s">
         <v>10</v>
       </c>
@@ -21233,7 +21233,7 @@
         <v>-117.69121629</v>
       </c>
     </row>
-    <row r="383" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="383" spans="1:16">
       <c r="A383" s="1" t="s">
         <v>10</v>
       </c>
@@ -21283,7 +21283,7 @@
         <v>-117.691197816</v>
       </c>
     </row>
-    <row r="384" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="384" spans="1:16">
       <c r="A384" s="1" t="s">
         <v>10</v>
       </c>
@@ -21333,7 +21333,7 @@
         <v>-117.691186316</v>
       </c>
     </row>
-    <row r="385" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="385" spans="1:16">
       <c r="A385" s="1" t="s">
         <v>10</v>
       </c>
@@ -21383,7 +21383,7 @@
         <v>-117.69116662499999</v>
       </c>
     </row>
-    <row r="386" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="386" spans="1:16">
       <c r="A386" s="1" t="s">
         <v>10</v>
       </c>
@@ -21433,7 +21433,7 @@
         <v>-117.691194483</v>
       </c>
     </row>
-    <row r="387" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="387" spans="1:16">
       <c r="A387" s="1" t="s">
         <v>10</v>
       </c>
@@ -21483,7 +21483,7 @@
         <v>-117.691217483</v>
       </c>
     </row>
-    <row r="388" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="388" spans="1:16">
       <c r="A388" s="1" t="s">
         <v>10</v>
       </c>
@@ -21533,7 +21533,7 @@
         <v>-117.691217483</v>
       </c>
     </row>
-    <row r="389" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="389" spans="1:16">
       <c r="A389" s="1" t="s">
         <v>10</v>
       </c>
@@ -21583,7 +21583,7 @@
         <v>-117.691236483</v>
       </c>
     </row>
-    <row r="390" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="390" spans="1:16">
       <c r="A390" s="1" t="s">
         <v>10</v>
       </c>
@@ -21633,7 +21633,7 @@
         <v>-117.691251317</v>
       </c>
     </row>
-    <row r="391" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="391" spans="1:16">
       <c r="A391" s="1" t="s">
         <v>10</v>
       </c>
@@ -21683,7 +21683,7 @@
         <v>-117.691253316</v>
       </c>
     </row>
-    <row r="392" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="392" spans="1:16">
       <c r="A392" s="1" t="s">
         <v>10</v>
       </c>
@@ -21733,7 +21733,7 @@
         <v>-117.691268292</v>
       </c>
     </row>
-    <row r="393" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="393" spans="1:16">
       <c r="A393" s="1" t="s">
         <v>10</v>
       </c>
@@ -21783,7 +21783,7 @@
         <v>-117.691287816</v>
       </c>
     </row>
-    <row r="394" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="394" spans="1:16">
       <c r="A394" s="1" t="s">
         <v>10</v>
       </c>
@@ -21833,7 +21833,7 @@
         <v>-117.691286483</v>
       </c>
     </row>
-    <row r="395" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="395" spans="1:16">
       <c r="A395" s="1" t="s">
         <v>10</v>
       </c>
@@ -21883,7 +21883,7 @@
         <v>-117.691311316</v>
       </c>
     </row>
-    <row r="396" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="396" spans="1:16">
       <c r="A396" s="1" t="s">
         <v>10</v>
       </c>
@@ -21933,7 +21933,7 @@
         <v>-117.691311816</v>
       </c>
     </row>
-    <row r="397" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="397" spans="1:16">
       <c r="A397" s="1" t="s">
         <v>10</v>
       </c>
